--- a/Arquivos - Controle de Numerário/UNIDADEINSTITUICAO.xlsx
+++ b/Arquivos - Controle de Numerário/UNIDADEINSTITUICAO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atos365-my.sharepoint.com/personal/wilson_grizante_atos_net/Documents/Projetos BULL-Atos/SICOOB/Documentos/Arquivos carga/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atos365-my.sharepoint.com/personal/danielle_magrini_atos_net/Documents/Documents/Pessoal/PROJETOS - CURSOS/ACELERA/DESAFIOFINAL/Arquivos - Controle de Numerário/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:40009_{A7A9324B-3321-48E1-BA85-41F0B97DC11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8ADC49D0-AE0E-4634-8BAB-6CAB7B19ED15}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:40009_{A7A9324B-3321-48E1-BA85-41F0B97DC11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B78CD78A-51F9-4A4C-BBF2-F0AEEB26B587}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="390" windowWidth="20460" windowHeight="10485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDADEINSTITUICAO" sheetId="1" r:id="rId1"/>
@@ -1355,48 +1355,48 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1412,7 +1412,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1710,34 +1710,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="3" customWidth="1"/>
-    <col min="4" max="4" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="25.42578125" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="H1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1835,7 +1836,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>691</v>
       </c>
@@ -1933,7 +1934,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>691</v>
       </c>
@@ -2028,7 +2029,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>691</v>
       </c>
@@ -2123,7 +2124,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>691</v>
       </c>
@@ -2218,7 +2219,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>691</v>
       </c>
@@ -2313,7 +2314,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>691</v>
       </c>
@@ -2408,7 +2409,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>691</v>
       </c>
@@ -2503,7 +2504,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>691</v>
       </c>
@@ -2598,7 +2599,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>691</v>
       </c>
@@ -2693,7 +2694,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>691</v>
       </c>
@@ -2788,7 +2789,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>691</v>
       </c>
@@ -2883,7 +2884,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>691</v>
       </c>
@@ -2978,7 +2979,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>691</v>
       </c>
@@ -3073,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>691</v>
       </c>
@@ -3168,7 +3169,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>691</v>
       </c>
@@ -3263,7 +3264,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>691</v>
       </c>
@@ -3358,7 +3359,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>691</v>
       </c>
@@ -3453,7 +3454,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>691</v>
       </c>
@@ -3548,7 +3549,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>691</v>
       </c>
@@ -3643,7 +3644,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>691</v>
       </c>
@@ -3738,7 +3739,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>691</v>
       </c>
@@ -3833,7 +3834,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>691</v>
       </c>
@@ -3928,7 +3929,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>691</v>
       </c>
@@ -4023,7 +4024,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>691</v>
       </c>
@@ -4118,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>691</v>
       </c>
@@ -4213,7 +4214,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>691</v>
       </c>
@@ -4308,7 +4309,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>691</v>
       </c>
@@ -4403,7 +4404,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>691</v>
       </c>
@@ -4498,7 +4499,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>691</v>
       </c>
@@ -4593,7 +4594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>691</v>
       </c>
@@ -4688,7 +4689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>691</v>
       </c>
@@ -4783,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>691</v>
       </c>
@@ -4878,7 +4879,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>691</v>
       </c>
@@ -4973,7 +4974,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>691</v>
       </c>
@@ -5068,7 +5069,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>691</v>
       </c>
@@ -5163,7 +5164,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>691</v>
       </c>
@@ -5258,7 +5259,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>691</v>
       </c>
@@ -5353,7 +5354,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>691</v>
       </c>
@@ -5448,7 +5449,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>691</v>
       </c>
@@ -5543,7 +5544,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>691</v>
       </c>
@@ -5638,7 +5639,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>691</v>
       </c>
@@ -5730,7 +5731,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>691</v>
       </c>
@@ -5822,7 +5823,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>691</v>
       </c>
@@ -5914,7 +5915,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>691</v>
       </c>
@@ -6006,7 +6007,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>691</v>
       </c>
@@ -6101,7 +6102,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>691</v>
       </c>
@@ -6193,7 +6194,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>691</v>
       </c>
@@ -6285,7 +6286,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>691</v>
       </c>
@@ -6377,7 +6378,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>691</v>
       </c>
@@ -6469,7 +6470,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>691</v>
       </c>
@@ -6564,7 +6565,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>691</v>
       </c>
@@ -6659,7 +6660,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>691</v>
       </c>
@@ -6754,7 +6755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>691</v>
       </c>
@@ -6846,7 +6847,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>691</v>
       </c>
@@ -6941,7 +6942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>691</v>
       </c>
@@ -7033,7 +7034,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>691</v>
       </c>
@@ -7125,7 +7126,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>691</v>
       </c>
@@ -7217,7 +7218,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>691</v>
       </c>
@@ -7309,7 +7310,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>691</v>
       </c>
@@ -7401,7 +7402,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>691</v>
       </c>
@@ -7493,7 +7494,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>691</v>
       </c>
@@ -7585,7 +7586,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>691</v>
       </c>
@@ -7677,7 +7678,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>691</v>
       </c>
@@ -7769,7 +7770,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>691</v>
       </c>
@@ -7861,7 +7862,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>691</v>
       </c>
@@ -7953,7 +7954,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>691</v>
       </c>
@@ -8045,7 +8046,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>691</v>
       </c>
@@ -8143,7 +8144,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>691</v>
       </c>
@@ -8232,7 +8233,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>691</v>
       </c>
